--- a/hor_gap.xlsx
+++ b/hor_gap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lreynolds\Documents\spcp blog\data_tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lreynolds\Documents\GitHub\liam-reynolds.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D8F417B-D5BD-44C4-92AD-41BC9A707342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166DA3F6-8238-4B56-A355-C26E0ACE122B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -571,7 +571,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -586,6 +586,7 @@
     <xf numFmtId="9" fontId="22" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -910,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1276,6 +1277,34 @@
         <v>0.64200000000000002</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.73</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
